--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1474.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1474.xlsx
@@ -354,7 +354,7 @@
         <v>2.197934503770771</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.944189299134569</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1474.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1474.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.435449735632935</v>
+        <v>1.005990743637085</v>
       </c>
       <c r="B1">
-        <v>2.197934503770771</v>
+        <v>3.462850570678711</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.076259613037109</v>
       </c>
       <c r="D1">
-        <v>1.944189299134569</v>
+        <v>3.298145771026611</v>
       </c>
       <c r="E1">
-        <v>0.628846131831259</v>
+        <v>1.008774995803833</v>
       </c>
     </row>
   </sheetData>
